--- a/Person.xlsx
+++ b/Person.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0366DDDD-0090-487A-864B-83F74DA8E936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC325CBB-8047-40DC-B416-700720186604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3009" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="498">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1583,7 +1583,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1636,15 +1636,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFC00000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFC00000"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -1754,7 +1746,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1785,12 +1777,11 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -13358,10 +13349,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{154B5F1A-041B-4C99-8DF8-28611FF1C66D}">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13369,22 +13360,23 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="30.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="31.90625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.54296875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="22.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="31.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -13395,45 +13387,48 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E1" t="s">
         <v>156</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>157</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>158</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>159</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>178</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>126</v>
       </c>
-      <c r="J1" s="28" t="s">
+      <c r="K1" s="11" t="s">
         <v>180</v>
       </c>
-      <c r="K1" s="29" t="s">
+      <c r="L1" s="29" t="s">
         <v>181</v>
       </c>
-      <c r="L1" s="30" t="s">
+      <c r="M1" s="30" t="s">
         <v>421</v>
       </c>
-      <c r="M1" s="10" t="s">
+      <c r="N1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>185</v>
       </c>
-      <c r="O1" s="10" t="s">
+      <c r="P1" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="10"/>
-    </row>
-    <row r="2" spans="1:17" s="6" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="Q1" s="11"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>14</v>
       </c>
@@ -13444,10 +13439,10 @@
         <v>1</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E2" s="6" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F2" s="6" t="s">
         <v>24</v>
@@ -13456,7 +13451,7 @@
         <v>24</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="I2" s="6" t="s">
         <v>18</v>
@@ -13479,8 +13474,11 @@
       <c r="O2" s="6" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="P2" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>496</v>
       </c>
@@ -13494,7 +13492,7 @@
         <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -13502,28 +13500,31 @@
       <c r="G3" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="J3" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="K3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="L3" s="31">
+      <c r="M3" s="28">
         <v>97818</v>
       </c>
-      <c r="M3" t="s">
-        <v>16</v>
-      </c>
       <c r="N3" t="s">
         <v>16</v>
       </c>
       <c r="O3" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Person.xlsx
+++ b/Person.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\24Feb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\njaikumar\Desktop\Report\25Feb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC325CBB-8047-40DC-B416-700720186604}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F00EA0B-1EB7-47E6-BA64-6DACD93E9DC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3012" uniqueCount="499">
   <si>
     <t>TESTCASE</t>
   </si>
@@ -1577,6 +1577,9 @@
   </si>
   <si>
     <t>Mailing Address</t>
+  </si>
+  <si>
+    <t>AddressText</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1749,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1777,6 +1780,11 @@
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -10153,7 +10161,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13352,7 +13360,7 @@
   <dimension ref="A1:R3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -13360,12 +13368,12 @@
     <col min="1" max="1" width="8.90625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.54296875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15" customWidth="1"/>
+    <col min="4" max="4" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.7265625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="30.08984375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="31.90625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="22.1796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14.1796875" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
@@ -13373,160 +13381,163 @@
     <col min="14" max="14" width="22.26953125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="22.6328125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="22.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
+      <c r="B1" s="28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="28" t="s">
         <v>156</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="28" t="s">
         <v>157</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="28" t="s">
         <v>158</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="28" t="s">
         <v>159</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="28" t="s">
         <v>178</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="K1" s="11" t="s">
+      <c r="K1" s="32" t="s">
         <v>180</v>
       </c>
-      <c r="L1" s="29" t="s">
+      <c r="L1" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="M1" s="30" t="s">
+      <c r="M1" s="35" t="s">
         <v>421</v>
       </c>
-      <c r="N1" s="10" t="s">
+      <c r="N1" s="31" t="s">
         <v>184</v>
       </c>
-      <c r="O1" s="11" t="s">
+      <c r="O1" s="32" t="s">
         <v>185</v>
       </c>
-      <c r="P1" s="10" t="s">
+      <c r="P1" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="10"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="31"/>
     </row>
     <row r="2" spans="1:18" s="6" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="B2" s="30">
+        <v>1</v>
+      </c>
+      <c r="C2" s="30">
+        <v>1</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="30" t="s">
         <v>24</v>
       </c>
-      <c r="I2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="P2" s="6" t="s">
-        <v>18</v>
-      </c>
+      <c r="I2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="N2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="O2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="P2" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="30" t="s">
         <v>496</v>
       </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="6" t="s">
+      <c r="B3" s="28">
+        <v>1</v>
+      </c>
+      <c r="C3" s="28">
+        <v>1</v>
+      </c>
+      <c r="D3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="H3" s="28" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>497</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="30" t="s">
         <v>130</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="L3" s="1" t="s">
+      <c r="K3" s="29" t="s">
+        <v>498</v>
+      </c>
+      <c r="L3" s="29" t="s">
         <v>425</v>
       </c>
-      <c r="M3" s="28">
+      <c r="M3" s="33">
         <v>97818</v>
       </c>
-      <c r="N3" t="s">
-        <v>16</v>
-      </c>
-      <c r="O3" t="s">
-        <v>16</v>
-      </c>
-      <c r="P3" t="s">
-        <v>16</v>
-      </c>
+      <c r="N3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
